--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5493827160493827</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9834254143646409</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006802721088435374</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5457317073170732</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7049504950495049</v>
+        <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4939024390243902</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06987392706738076</v>
+        <v>0.05972779320125014</v>
       </c>
       <c r="J2" t="n">
-        <v>924.3093039793073</v>
+        <v>728.1304435515539</v>
       </c>
       <c r="K2" t="n">
-        <v>1226381.504430828</v>
+        <v>637143.7062774862</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.42110528508</v>
+        <v>798.2128201660796</v>
       </c>
       <c r="M2" t="n">
-        <v>0.768654348079521</v>
+        <v>0.8798086683766446</v>
       </c>
     </row>
   </sheetData>
